--- a/biology/Botanique/Oryza_officinalis/Oryza_officinalis.xlsx
+++ b/biology/Botanique/Oryza_officinalis/Oryza_officinalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oryza officinalis est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae[2], originaire de l'Asie tropicales. 
-Ce sont des plantes herbacées vivaces cespiteuses, aux tiges (chaumes) dressées ou géniculées ascendantes ou décombantes, pouvant atteindre 150 cm de long[2].
-Cette espèce au génome diploïde du type CC est rattachée au complexe d'espèces Oryza officinalis[3].
-Comme d'autres espèces sauvages de riz, Oryza officinalis est une mauvaise herbe des rizières, mais aussi des cours d'eau[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oryza officinalis est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae, originaire de l'Asie tropicales. 
+Ce sont des plantes herbacées vivaces cespiteuses, aux tiges (chaumes) dressées ou géniculées ascendantes ou décombantes, pouvant atteindre 150 cm de long.
+Cette espèce au génome diploïde du type CC est rattachée au complexe d'espèces Oryza officinalis.
+Comme d'autres espèces sauvages de riz, Oryza officinalis est une mauvaise herbe des rizières, mais aussi des cours d'eau.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (26 avril 2017)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (26 avril 2017) :
 Oryza latifolia var. silvatica A.Camus
 Oryza malampuzhaensis Krishnasw. &amp; Chandras.
 Oryza minuta var. silvatica (A.Camus) Veldkamp
@@ -548,9 +562,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (26 avril 2017)[6] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (26 avril 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Oryza officinalis subsp. malampuzhaensis (Krishnasw. &amp; Chandras.) Tateoka
 sous-espèce Oryza officinalis subsp. officinalis</t>
         </is>
